--- a/MyReadings.xlsx
+++ b/MyReadings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_backup\saeedmhq\MyReadings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -678,7 +678,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -687,6 +687,17 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -728,17 +739,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E71" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E71" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:E71"/>
   <sortState ref="A2:E70">
     <sortCondition ref="E1:E70"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" name="#" totalsRowLabel="Total" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="نام کتاب" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="صفحه" dataDxfId="2"/>
-    <tableColumn id="3" name="نویسنده" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="4" name="تاریخ اتمام" totalsRowFunction="count"/>
+    <tableColumn id="5" name="#" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="نام کتاب" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="صفحه" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="نویسنده" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="تاریخ اتمام" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1048558"/>
+  <dimension ref="A1:H1048557"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1130,7 @@
         <v>49</v>
       </c>
       <c r="H4" s="6">
-        <f>SUM(C2:C101)</f>
+        <f>SUBTOTAL(109,Table1[صفحه])</f>
         <v>16755</v>
       </c>
     </row>
@@ -2262,9 +2273,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1048558" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048558" s="1">
-        <f>SUM(B2:B1048557)</f>
+    <row r="1048557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048557" s="1">
+        <f>SUM(B2:B1048556)</f>
         <v>0</v>
       </c>
     </row>

--- a/MyReadings.xlsx
+++ b/MyReadings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_backup\saeedmhq\MyReadings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_backup\saeeddiscovery\MyReadings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="181">
   <si>
     <t>زهیر</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>تا</t>
+  </si>
+  <si>
+    <t>گره دریایی</t>
+  </si>
+  <si>
+    <t>1399/09/05</t>
   </si>
 </sst>
 </file>
@@ -692,12 +698,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -706,7 +707,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -739,16 +745,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E71" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:E71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E72" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E72"/>
   <sortState ref="A2:E70">
     <sortCondition ref="E1:E70"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" name="#" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="نام کتاب" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="صفحه" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="نویسنده" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="#" totalsRowDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="نام کتاب" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="صفحه" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="نویسنده" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="4" name="تاریخ اتمام" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1018,27 +1024,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1048557"/>
+  <dimension ref="A1:H1048558"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView rightToLeft="1" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A64" zoomScale="168" zoomScaleNormal="100" zoomScalePageLayoutView="168" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>1383/12/01</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1083,10 +1089,10 @@
       </c>
       <c r="H2" s="7" t="str">
         <f>LOOKUP(2,1/(NOT(ISBLANK(E:E))),E:E)</f>
-        <v>1398/12/24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1399/09/05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1107,10 +1113,10 @@
       </c>
       <c r="H3" s="6">
         <f>LOOKUP(2,1/(NOT(ISBLANK(A:A))),A:A)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1131,10 +1137,10 @@
       </c>
       <c r="H4" s="6">
         <f>SUBTOTAL(109,Table1[صفحه])</f>
-        <v>16755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -2273,9 +2279,26 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1048557" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048557" s="1">
-        <f>SUM(B2:B1048556)</f>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="1">
+        <v>112</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1048558" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1048558" s="1">
+        <f>SUM(B2:B1048557)</f>
         <v>0</v>
       </c>
     </row>
